--- a/ePICreator/Pentasa.xlsx
+++ b/ePICreator/Pentasa.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaoalmeida/Desktop/hl7Europe/gravitate/vulcan-eproduct-info/ePICreator/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaoalmeida/Desktop/hl7Europe/gravitate/gravitate-health/ePICreator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C787766-B8C7-4E43-BE37-38B8A4685798}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33A880F0-BF13-AA4D-A19C-88725E174BD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="5" xr2:uid="{0EBB815D-796F-C248-AC7C-E52173F2F74B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="2" xr2:uid="{0EBB815D-796F-C248-AC7C-E52173F2F74B}"/>
   </bookViews>
   <sheets>
     <sheet name="AdministrableProductDefinition" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="160">
   <si>
     <t>id</t>
   </si>
@@ -493,9 +493,6 @@
   </si>
   <si>
     <t>packaging_quantity</t>
-  </si>
-  <si>
-    <t>cc</t>
   </si>
   <si>
     <t>es</t>
@@ -887,7 +884,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hiperligação" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -904,7 +901,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1525,8 +1522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B05DE958-7C5A-B14B-9983-3CEB258B5640}">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1593,9 +1590,7 @@
       <c r="B2" t="s">
         <v>136</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>149</v>
-      </c>
+      <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
         <v>60</v>
       </c>
@@ -1603,32 +1598,32 @@
         <v>62</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="I2" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="J2" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="K2" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="L2" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="M2" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="N2" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="N2" s="7" t="s">
-        <v>157</v>
-      </c>
       <c r="O2" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -1931,7 +1926,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5EB2795-F6E7-D149-BA96-099EC7B435E4}">
   <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -2032,10 +2027,10 @@
         <v>136</v>
       </c>
       <c r="C2" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="D2" s="24" t="s">
         <v>158</v>
-      </c>
-      <c r="D2" s="24" t="s">
-        <v>159</v>
       </c>
       <c r="E2" t="s">
         <v>139</v>

--- a/ePICreator/Pentasa.xlsx
+++ b/ePICreator/Pentasa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaoalmeida/Desktop/hl7Europe/gravitate/gravitate-health/ePICreator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33A880F0-BF13-AA4D-A19C-88725E174BD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBDB0961-7A0F-D445-874E-300E1DBBB072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="2" xr2:uid="{0EBB815D-796F-C248-AC7C-E52173F2F74B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="5" xr2:uid="{0EBB815D-796F-C248-AC7C-E52173F2F74B}"/>
   </bookViews>
   <sheets>
     <sheet name="AdministrableProductDefinition" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="161">
   <si>
     <t>id</t>
   </si>
@@ -691,6 +691,9 @@
 &lt;p&gt;Fecha de la última revisión de este prospecto en enero 2021
 La información detallada y actualizada de este medicamento está disponible en la página Web de la
 Agencia Española de Medicamentos y Productos Sanitarios (AEMPS) &lt;a href="http://www.aemps.gob.es/"&gt;http://www.aemps.gob.es/&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>country</t>
   </si>
 </sst>
 </file>
@@ -1522,7 +1525,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B05DE958-7C5A-B14B-9983-3CEB258B5640}">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -1926,8 +1929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5EB2795-F6E7-D149-BA96-099EC7B435E4}">
   <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1976,7 +1979,7 @@
         <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>27</v>
+        <v>160</v>
       </c>
       <c r="K1" t="s">
         <v>103</v>

--- a/ePICreator/Pentasa.xlsx
+++ b/ePICreator/Pentasa.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaoalmeida/Desktop/hl7Europe/gravitate/gravitate-health/ePICreator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBDB0961-7A0F-D445-874E-300E1DBBB072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34F3387A-7210-A240-A738-9EFD334213DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="5" xr2:uid="{0EBB815D-796F-C248-AC7C-E52173F2F74B}"/>
   </bookViews>
@@ -670,9 +670,6 @@
 ayudará a proteger el medio ambiente.&lt;/p&gt;</t>
   </si>
   <si>
-    <t>https://cima.aemps.es/ids|https://www.who-umc.org/phpid</t>
-  </si>
-  <si>
     <t>77022|0xF79CABF272B6A7EEF104DDDA44E827xx</t>
   </si>
   <si>
@@ -694,6 +691,9 @@
   </si>
   <si>
     <t>country</t>
+  </si>
+  <si>
+    <t>https://spor.ema.europa.eu/pmswi|https://www.who-umc.org/phpid</t>
   </si>
 </sst>
 </file>
@@ -1626,7 +1626,7 @@
         <v>156</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -1930,7 +1930,7 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1979,7 +1979,7 @@
         <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K1" t="s">
         <v>103</v>
@@ -2030,10 +2030,10 @@
         <v>136</v>
       </c>
       <c r="C2" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="D2" s="24" t="s">
         <v>157</v>
-      </c>
-      <c r="D2" s="24" t="s">
-        <v>158</v>
       </c>
       <c r="E2" t="s">
         <v>139</v>

--- a/ePICreator/Pentasa.xlsx
+++ b/ePICreator/Pentasa.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaoalmeida/Desktop/hl7Europe/gravitate/gravitate-health/ePICreator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34F3387A-7210-A240-A738-9EFD334213DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3021E049-8D5C-4243-808B-3A7C113567B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="5" xr2:uid="{0EBB815D-796F-C248-AC7C-E52173F2F74B}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21100" firstSheet="1" activeTab="10" xr2:uid="{0EBB815D-796F-C248-AC7C-E52173F2F74B}"/>
   </bookViews>
   <sheets>
     <sheet name="AdministrableProductDefinition" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="161">
   <si>
     <t>id</t>
   </si>
@@ -904,9 +904,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -944,7 +944,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1050,7 +1050,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1192,7 +1192,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1411,8 +1411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB4B3880-CBCE-B242-93DB-BF401DA7FB8A}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1438,7 +1438,7 @@
         <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1453,6 +1453,9 @@
       </c>
       <c r="E2" t="s">
         <v>139</v>
+      </c>
+      <c r="F2" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1929,7 +1932,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5EB2795-F6E7-D149-BA96-099EC7B435E4}">
   <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
